--- a/Test Cases/Test Cases - Manual.xlsx
+++ b/Test Cases/Test Cases - Manual.xlsx
@@ -490,7 +490,7 @@
     <t>1. Go to cart 2. Click checkout 3. Fill First/Last Name, Zip 4. Continue</t>
   </si>
   <si>
-    <t>Name: John Doe, Zip: 12345</t>
+    <t>Name: Hemant Bhase Zip: 411020</t>
   </si>
   <si>
     <t>Order confirmation page</t>

--- a/Test Cases/Test Cases - Manual.xlsx
+++ b/Test Cases/Test Cases - Manual.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhase\eclipse-workspace\Capstone_Project_SauceDemo_Testing\Test Cases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A5D843-BFAF-41D9-88D9-02C3714AE748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="212">
   <si>
     <t>Project Name</t>
   </si>
@@ -574,35 +580,96 @@
     <t>Message displayed</t>
   </si>
   <si>
-    <t>Module 6: Logout</t>
-  </si>
-  <si>
-    <t>TC_SD_022</t>
-  </si>
-  <si>
-    <t>Logout Successfully</t>
-  </si>
-  <si>
-    <t>Verify user can logout properly</t>
-  </si>
-  <si>
-    <t>1. Login to application 2. Open menu (≡) 3. Click "Logout" 4. Try accessing internal page via back button</t>
-  </si>
-  <si>
-    <t>User is redirected to login page, cannot access authenticated pages</t>
-  </si>
-  <si>
-    <t>User logged out</t>
+    <t>TC_SD_023</t>
+  </si>
+  <si>
+    <t>Verify Menu - All Items</t>
+  </si>
+  <si>
+    <t>Verify clicking "All Items" menu stays on inventory page</t>
+  </si>
+  <si>
+    <t>Inventory page remains displayed</t>
+  </si>
+  <si>
+    <t>TC_SD_024</t>
+  </si>
+  <si>
+    <t>Verify Menu - About</t>
+  </si>
+  <si>
+    <t>Verify "About" menu item opens https://saucelabs.com/</t>
+  </si>
+  <si>
+    <t>External Sauce Labs website loads</t>
+  </si>
+  <si>
+    <t>TC_SD_025</t>
+  </si>
+  <si>
+    <t>Verify Menu - Logout</t>
+  </si>
+  <si>
+    <t>Verify "Logout" redirects to login page</t>
+  </si>
+  <si>
+    <t>TC_SD_026</t>
+  </si>
+  <si>
+    <t>Verify Menu - Reset App State</t>
+  </si>
+  <si>
+    <t>Verify "Reset App State" clears the cart</t>
+  </si>
+  <si>
+    <t>User logged in with items in cart</t>
+  </si>
+  <si>
+    <t>Cart shows zero items (empty) after reset action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login, 2. Click menu button (top-left), 3. Click "All Items", 4. Verify remains on inventory page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login, 2. Click menu button, 3. Click "About", 4. Verify redirection/opening of "https://saucelabs.com/" in new tab or window
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login, 2. Click menu button, 3. Click "Logout", 4. Verify redirection to login page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login, 2. Add one or more items to cart, 3. Click menu button, 4. Click "Reset App State", 5. Verify cart is empty after reset
+</t>
+  </si>
+  <si>
+    <t>Inventory page displayed</t>
+  </si>
+  <si>
+    <t>Opens Sauce Labs website</t>
+  </si>
+  <si>
+    <t>User Logged out &amp; returned to login page</t>
+  </si>
+  <si>
+    <t>Login page</t>
+  </si>
+  <si>
+    <t>Empty cart</t>
+  </si>
+  <si>
+    <t>Module 6: Menu Navigation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm-dd-yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +714,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -657,11 +730,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00b0f0"/>
+        <fgColor rgb="FF00B0F0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -742,10 +815,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,20 +833,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,114 +855,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -913,10 +1013,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -954,71 +1054,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1046,7 +1146,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1069,11 +1169,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1082,13 +1182,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1098,7 +1198,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1107,7 +1207,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1116,7 +1216,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1124,10 +1224,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1192,1435 +1292,1539 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="29" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="30" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="30" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="30" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="30" width="54.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="30" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="30" width="138.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="30" width="71.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="30" width="66.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="30" width="38.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="30" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="31" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="30" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="30" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="30" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="30" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="30" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="30" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="30" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="27.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
+    <row r="1" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="7" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19"/>
+    </row>
+    <row r="2" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
-      <c r="A3" s="7" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="19"/>
+    </row>
+    <row r="3" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="17" t="e">
         <f>-B4</f>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
-      <c r="A4" s="7" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="23">
         <v>45816</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
-      <c r="A6" s="13" t="s">
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="19"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25" customFormat="1" s="17">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="17">
-      <c r="A8" s="22">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A9" s="22">
+      <c r="L8" s="14"/>
+      <c r="Q8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A10" s="22">
+      <c r="L9" s="14"/>
+      <c r="Q9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A11" s="22">
+      <c r="L10" s="14"/>
+      <c r="Q10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A12" s="22">
+      <c r="L11" s="14"/>
+      <c r="Q11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R12" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="26" t="s">
+      <c r="L12" s="14"/>
+      <c r="Q12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="32.25" customFormat="1" s="17">
-      <c r="A14" s="22">
+      <c r="Q13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="35">
         <v>6</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="26" t="s">
+      <c r="L14" s="34"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="17">
-      <c r="A16" s="22">
+      <c r="Q15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
         <v>7</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A17" s="22">
+      <c r="L16" s="14"/>
+      <c r="Q16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
         <v>8</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S17" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A18" s="22">
+      <c r="L17" s="14"/>
+      <c r="Q17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
         <v>9</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S18" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A19" s="22">
+      <c r="L18" s="14"/>
+      <c r="Q18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
         <v>10</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R19" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="26" t="s">
+      <c r="L19" s="14"/>
+      <c r="Q19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="S20" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="17">
-      <c r="A21" s="22">
+      <c r="Q20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="35">
         <v>11</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S21" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A22" s="22">
+      <c r="L21" s="34"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="35">
         <v>12</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A23" s="22">
+      <c r="L22" s="34"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="35">
         <v>13</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R23" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A24" s="22">
+      <c r="L23" s="34"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="35">
         <v>14</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S24" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A25" s="22">
+      <c r="L24" s="34"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="35">
         <v>15</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R25" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S25" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A26" s="22">
+      <c r="L25" s="34"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="35">
         <v>16</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R26" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S26" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="26" t="s">
+      <c r="L26" s="34"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="S27" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A28" s="22">
+      <c r="Q27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="35">
         <v>17</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S28" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A29" s="22">
+      <c r="L28" s="14"/>
+      <c r="Q28" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="35">
         <v>18</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="24"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R29" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S29" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A30" s="22">
+      <c r="L29" s="14"/>
+      <c r="Q29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="35">
         <v>19</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L30" s="24"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R30" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S30" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A31" s="22">
+      <c r="L30" s="14"/>
+      <c r="Q30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="35">
         <v>20</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K31" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="24"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R31" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S31" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A32" s="22">
+      <c r="L31" s="14"/>
+      <c r="Q31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="35">
         <v>21</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L32" s="24"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R32" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S32" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="26" t="s">
+      <c r="L32" s="14"/>
+      <c r="Q32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+    </row>
+    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="36">
+        <v>22</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="17">
-      <c r="A34" s="22">
-        <v>22</v>
-      </c>
-      <c r="B34" s="23" t="s">
+      <c r="D34" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="S34" s="25"/>
+      <c r="T34" s="24"/>
+    </row>
+    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="36">
+        <v>23</v>
+      </c>
+      <c r="B35" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" s="23" t="s">
+      <c r="C35" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="H34" s="23" t="s">
+      <c r="G35" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="K34" s="23" t="s">
+      <c r="I35" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="K35" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="L34" s="24"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R35" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="S35" s="25"/>
+      <c r="T35" s="24"/>
+    </row>
+    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="36">
+        <v>24</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R36" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="S36" s="25"/>
+      <c r="T36" s="24"/>
+    </row>
+    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="36">
+        <v>25</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R37" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="S37" s="25"/>
+      <c r="T37" s="24"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="24"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="24"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="24"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="L5:S5"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="L1:S1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="L3:S3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="L4:S4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="L5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases/Test Cases - Manual.xlsx
+++ b/Test Cases/Test Cases - Manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhase\eclipse-workspace\Capstone_Project_SauceDemo_Testing\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A5D843-BFAF-41D9-88D9-02C3714AE748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390CE334-97A3-46BC-B73F-F1CB92875CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="213">
   <si>
     <t>Project Name</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Username: locked_out_user, Password: secret_sauce</t>
   </si>
   <si>
-    <t>Error: "User has been locked out"</t>
-  </si>
-  <si>
     <t>TC_SD_004</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>Products available</t>
   </si>
   <si>
-    <t>Product image, name, price, description, Add to Cart button shown for each product</t>
-  </si>
-  <si>
     <t>Details displayed</t>
   </si>
   <si>
@@ -389,9 +383,6 @@
   </si>
   <si>
     <t>Quantity and prices update accordingly</t>
-  </si>
-  <si>
-    <t>Updated quantity</t>
   </si>
   <si>
     <t>TC_SD_013</t>
@@ -660,6 +651,18 @@
   </si>
   <si>
     <t>Module 6: Menu Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity non editable </t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Error: "Epic sadface: Sorry, this user has been locked out."</t>
+  </si>
+  <si>
+    <t>Title of one product "Sauce Labs Backpack" should be there</t>
   </si>
 </sst>
 </file>
@@ -935,27 +938,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -970,7 +952,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -990,6 +972,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,144 +1332,144 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="19"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="19"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17" t="e">
+      <c r="B3" s="30" t="e">
         <f>-B4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32"/>
     </row>
     <row r="4" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="19"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
     </row>
     <row r="5" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="34">
         <v>45816</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="32"/>
     </row>
     <row r="6" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1525,7 +1528,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="9"/>
@@ -1661,7 +1664,7 @@
         <v>59</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>53</v>
@@ -1685,25 +1688,25 @@
         <v>36</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>53</v>
@@ -1727,25 +1730,25 @@
         <v>36</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H12" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="I12" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>53</v>
@@ -1762,65 +1765,65 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="28">
+        <v>6</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="Q13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="35">
-        <v>6</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="32" t="s">
+      <c r="D14" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="E14" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="F14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="32" t="s">
+      <c r="H14" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="I14" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="K14" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="27" t="s">
-        <v>83</v>
       </c>
       <c r="Q15" s="9" t="s">
         <v>34</v>
@@ -1837,28 +1840,28 @@
         <v>36</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="H16" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="I16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="J16" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>45</v>
@@ -1879,28 +1882,28 @@
         <v>36</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="F17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="H17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="13" t="s">
+      <c r="J17" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>45</v>
@@ -1921,28 +1924,28 @@
         <v>36</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="F18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="H18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="J18" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>45</v>
@@ -1963,28 +1966,28 @@
         <v>36</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="F19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="H19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="13" t="s">
+      <c r="J19" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>45</v>
@@ -1998,335 +2001,335 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="28">
+        <v>11</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="Q20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="35">
-        <v>11</v>
-      </c>
-      <c r="B21" s="32" t="s">
+      <c r="D21" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="E21" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="F21" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="G21" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="H21" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="I21" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="J21" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="K21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="27"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="28">
+        <v>12</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="D22" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="E22" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" s="27"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="28">
+        <v>13</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="R21" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="35">
-        <v>12</v>
-      </c>
-      <c r="B22" s="32" t="s">
+      <c r="L23" s="27"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="28">
+        <v>14</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" s="32" t="s">
+      <c r="C24" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="34"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="R22" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="35">
-        <v>13</v>
-      </c>
-      <c r="B23" s="32" t="s">
+      <c r="L24" s="27"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="28">
+        <v>15</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="27"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="28">
+        <v>16</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="J23" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="32" t="s">
+      <c r="C26" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="R23" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="35">
-        <v>14</v>
-      </c>
-      <c r="B24" s="32" t="s">
+      <c r="L26" s="27"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="28">
+        <v>17</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="J24" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="K24" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="34"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="35">
-        <v>15</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J25" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="R25" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="35">
-        <v>16</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" s="33" t="s">
+      <c r="C28" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="D28" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="34"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="R26" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="27" t="s">
+      <c r="E28" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="Q27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="35">
-        <v>17</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="32" t="s">
+      <c r="F28" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="H28" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="I28" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="32" t="s">
+      <c r="J28" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="J28" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="25" t="s">
         <v>45</v>
       </c>
       <c r="L28" s="14"/>
@@ -2338,37 +2341,37 @@
       </c>
     </row>
     <row r="29" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="35">
+      <c r="A29" s="28">
         <v>18</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="H29" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="I29" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="25" t="s">
         <v>45</v>
       </c>
       <c r="L29" s="14"/>
@@ -2380,37 +2383,37 @@
       </c>
     </row>
     <row r="30" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="35">
+      <c r="A30" s="28">
         <v>19</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="H30" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="K30" s="32" t="s">
+      <c r="J30" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="K30" s="25" t="s">
         <v>45</v>
       </c>
       <c r="L30" s="14"/>
@@ -2422,37 +2425,37 @@
       </c>
     </row>
     <row r="31" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="35">
+      <c r="A31" s="28">
         <v>20</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="H31" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="I31" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" s="32" t="s">
+      <c r="J31" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="H31" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="25" t="s">
         <v>45</v>
       </c>
       <c r="L31" s="14"/>
@@ -2464,37 +2467,37 @@
       </c>
     </row>
     <row r="32" spans="1:18" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="35">
+      <c r="A32" s="28">
         <v>21</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="H32" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="I32" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F32" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="32" t="s">
+      <c r="J32" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="H32" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="J32" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="K32" s="32" t="s">
+      <c r="K32" s="25" t="s">
         <v>45</v>
       </c>
       <c r="L32" s="14"/>
@@ -2506,312 +2509,312 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
+      <c r="A33" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
       <c r="Q33" s="13" t="s">
         <v>34</v>
       </c>
       <c r="R33" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
     </row>
     <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="36">
+      <c r="A34" s="29">
         <v>22</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="J34" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S34" s="18"/>
+      <c r="T34" s="17"/>
+    </row>
+    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="29">
+        <v>23</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="D35" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="E35" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G35" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R35" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S35" s="18"/>
+      <c r="T35" s="17"/>
+    </row>
+    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="29">
+        <v>24</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R36" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S36" s="18"/>
+      <c r="T36" s="17"/>
+    </row>
+    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="29">
+        <v>25</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H37" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="J34" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="K34" s="31" t="s">
+      <c r="I37" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="R34" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="S34" s="25"/>
-      <c r="T34" s="24"/>
-    </row>
-    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="36">
-        <v>23</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="J35" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="K35" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="R35" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="S35" s="25"/>
-      <c r="T35" s="24"/>
-    </row>
-    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="36">
-        <v>24</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="J36" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="K36" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="R36" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="S36" s="25"/>
-      <c r="T36" s="24"/>
-    </row>
-    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="36">
-        <v>25</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="J37" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="R37" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="S37" s="25"/>
-      <c r="T37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R37" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S37" s="18"/>
+      <c r="T37" s="17"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="24"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="17"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="24"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="17"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="24"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="17"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="24"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Test Cases/Test Cases - Manual.xlsx
+++ b/Test Cases/Test Cases - Manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhase\eclipse-workspace\Capstone_Project_SauceDemo_Testing\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390CE334-97A3-46BC-B73F-F1CB92875CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F6A645-9DB0-4E9D-BF64-C9564B38896B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="212">
   <si>
     <t>Project Name</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Error: "Password is required"</t>
   </si>
   <si>
-    <t>Module 2: Inventory Page</t>
-  </si>
-  <si>
     <t>TC_SD_006</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>Details displayed</t>
   </si>
   <si>
-    <t>Module 3: Sorting Functionality</t>
-  </si>
-  <si>
     <t>TC_SD_007</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
     <t>Products arranged by highest to lowest price</t>
   </si>
   <si>
-    <t>Module 4: Cart Page</t>
-  </si>
-  <si>
     <t>Usability</t>
   </si>
   <si>
@@ -470,9 +461,6 @@
   </si>
   <si>
     <t>Navigation works</t>
-  </si>
-  <si>
-    <t>Module 5: Checkout Flow</t>
   </si>
   <si>
     <t>TC_SD_017</t>
@@ -650,9 +638,6 @@
     <t>Empty cart</t>
   </si>
   <si>
-    <t>Module 6: Menu Navigation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quantity non editable </t>
   </si>
   <si>
@@ -663,6 +648,18 @@
   </si>
   <si>
     <t>Title of one product "Sauce Labs Backpack" should be there</t>
+  </si>
+  <si>
+    <t>Module 2: Sorting Functionality</t>
+  </si>
+  <si>
+    <t>Module 3: Cart Page</t>
+  </si>
+  <si>
+    <t>Module 4: Checkout Flow</t>
+  </si>
+  <si>
+    <t>Module 5: Menu Navigation</t>
   </si>
 </sst>
 </file>
@@ -1299,10 +1296,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1328,7 +1325,7 @@
     <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1354,7 @@
       <c r="R1" s="31"/>
       <c r="S1" s="32"/>
     </row>
-    <row r="2" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1384,7 +1381,7 @@
       <c r="R2" s="31"/>
       <c r="S2" s="32"/>
     </row>
-    <row r="3" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1411,7 @@
       <c r="R3" s="31"/>
       <c r="S3" s="32"/>
     </row>
-    <row r="4" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1436,7 @@
       <c r="R4" s="31"/>
       <c r="S4" s="32"/>
     </row>
-    <row r="5" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1468,7 +1465,7 @@
       <c r="R5" s="31"/>
       <c r="S5" s="32"/>
     </row>
-    <row r="6" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
@@ -1527,7 +1524,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>33</v>
       </c>
@@ -1554,7 +1551,7 @@
       </c>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1596,7 +1593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2</v>
       </c>
@@ -1638,7 +1635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>3</v>
       </c>
@@ -1664,7 +1661,7 @@
         <v>59</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>53</v>
@@ -1680,7 +1677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>4</v>
       </c>
@@ -1722,7 +1719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>5</v>
       </c>
@@ -1764,9 +1761,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>34</v>
@@ -1775,7 +1772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>6</v>
       </c>
@@ -1783,28 +1780,28 @@
         <v>36</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="E14" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="I14" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>45</v>
@@ -1821,47 +1818,85 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>7</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="E15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="G16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="I16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>45</v>
@@ -1874,36 +1909,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="13" t="s">
+      <c r="I17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>45</v>
@@ -1916,36 +1951,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="I18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>45</v>
@@ -1958,92 +1993,117 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>10</v>
-      </c>
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:21" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19" s="15"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="28">
+        <v>11</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+    </row>
+    <row r="21" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="28">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="Q19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="28">
-        <v>11</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>106</v>
-      </c>
       <c r="C21" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>110</v>
-      </c>
       <c r="G21" s="25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="L21" s="27"/>
       <c r="M21" s="26"/>
@@ -2057,39 +2117,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="L22" s="27"/>
       <c r="M22" s="26"/>
@@ -2103,36 +2163,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K23" s="25" t="s">
         <v>45</v>
@@ -2149,36 +2209,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>45</v>
@@ -2195,36 +2255,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K25" s="25" t="s">
         <v>45</v>
@@ -2241,93 +2301,114 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="28">
-        <v>16</v>
-      </c>
-      <c r="B26" s="25" t="s">
+    <row r="26" spans="1:21" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26" s="15"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="28">
+        <v>17</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="25" t="s">
+      <c r="C27" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="E27" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="F27" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="K27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="R26" s="25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="L27" s="14"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+    </row>
+    <row r="28" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="K28" s="25" t="s">
         <v>45</v>
@@ -2340,36 +2421,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="K29" s="25" t="s">
         <v>45</v>
@@ -2382,36 +2463,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>45</v>
@@ -2424,36 +2505,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K31" s="25" t="s">
         <v>45</v>
@@ -2466,79 +2547,86 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="28">
-        <v>21</v>
-      </c>
-      <c r="B32" s="25" t="s">
+    <row r="32" spans="1:21" s="8" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32"/>
+    </row>
+    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="29">
+        <v>22</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="E33" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="F33" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="J33" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K33" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L32" s="14"/>
-      <c r="Q32" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="S33" s="17"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S33" s="18"/>
       <c r="T33" s="17"/>
     </row>
     <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>36</v>
@@ -2549,14 +2637,14 @@
       <c r="D34" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="23" t="s">
         <v>185</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>44</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>3</v>
@@ -2565,7 +2653,7 @@
         <v>186</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K34" s="24" t="s">
         <v>45</v>
@@ -2586,7 +2674,7 @@
     </row>
     <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>36</v>
@@ -2597,23 +2685,23 @@
       <c r="D35" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="24" t="s">
-        <v>190</v>
+      <c r="I35" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K35" s="24" t="s">
         <v>45</v>
@@ -2634,34 +2722,34 @@
     </row>
     <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="29">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="E36" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="F36" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="F36" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="G36" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H36" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="23" t="s">
-        <v>205</v>
+      <c r="I36" s="24" t="s">
+        <v>194</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K36" s="24" t="s">
         <v>45</v>
@@ -2688,28 +2776,28 @@
         <v>36</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>3</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K37" s="24" t="s">
         <v>45</v>
